--- a/studygo/day04/生成的测试用例结果.xlsx
+++ b/studygo/day04/生成的测试用例结果.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -536,4 +537,580 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>用例标题</v>
+      </c>
+      <c r="B1" t="str">
+        <v>摘要</v>
+      </c>
+      <c r="C1" t="str">
+        <v>前提</v>
+      </c>
+      <c r="D1" t="str">
+        <v>步骤编号</v>
+      </c>
+      <c r="E1" t="str">
+        <v>测试步骤</v>
+      </c>
+      <c r="F1" t="str">
+        <v>期望结果</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>送礼-赠送礼物全麦</v>
+      </c>
+      <c r="B2" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C2" t="str">
+        <v>&lt;p&gt;金币充足&lt;/p&gt;</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>&lt;p&gt;用户点击礼物按钮&lt;/p&gt;</v>
+      </c>
+      <c r="F2" t="str">
+        <v>&lt;p&gt;拉起礼物栏，默认打开选中送全麦按钮
+全麦按钮旁所有用户头像显示选中状态&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="str">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <v>&lt;p&gt;选择礼物，点击赠送&lt;/p&gt;</v>
+      </c>
+      <c r="F3" t="str">
+        <v>&lt;p&gt;礼物赠送成功，钻石扣除对应数量&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>送礼-赠送礼物非全麦</v>
+      </c>
+      <c r="B5" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C5" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>&lt;p&gt;用户点击礼物按钮，关闭送全麦按钮&lt;/p&gt;</v>
+      </c>
+      <c r="F5" t="str">
+        <v>&lt;p&gt;状态切换成功，送全麦按钮显示关闭状态
+按钮旁边所有用户头像显示置灰状态&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="str">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>&lt;p&gt;点击任一用户头像&lt;/p&gt;</v>
+      </c>
+      <c r="F6" t="str">
+        <v>&lt;p&gt;被点击的用户头像显示选中状态
+其余的头像显示置灰状态&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>&lt;p&gt;切换其他用户头像&lt;/p&gt;</v>
+      </c>
+      <c r="F7" t="str">
+        <v>&lt;p&gt;切换显示其他用户头像为选中状态
+只显示一个用户被选中&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="str">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <v>&lt;p&gt;选择礼物，点击赠送&lt;/p&gt;</v>
+      </c>
+      <c r="F8" t="str">
+        <v>&lt;p&gt;礼物赠送成功，钻石扣除对应数量&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>送礼-全麦下取消头像</v>
+      </c>
+      <c r="B10" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C10" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>&lt;p&gt;用户点击礼物拉起礼物栏，全麦下点击ABC用户头像&lt;/p&gt;</v>
+      </c>
+      <c r="F10" t="str">
+        <v>&lt;p&gt;头像显示置灰未被选中状态&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="str">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>&lt;p&gt;选择礼物，点击赠送&lt;/p&gt;</v>
+      </c>
+      <c r="F11" t="str">
+        <v>&lt;p&gt;ABC用户接收不到赠送的礼物，其他用户可正常接收，钻石数量扣除正确&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>送礼-点击座位席用户头像送礼</v>
+      </c>
+      <c r="B13" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C13" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>&lt;p&gt;
+	点击座位席中的房主或普通用户A头像，点击送礼&lt;/p&gt;
+</v>
+      </c>
+      <c r="F13" t="str">
+        <v>&lt;p&gt;
+	&lt;span style="font-family: &amp;quot;Arial&amp;quot;; font-size: 13px; font-style: normal; font-weight: normal; text-decoration: none;"&gt;送礼栏显示选中A，其余用户显示未选中状态 送全麦按钮显示关闭状态&lt;/span&gt;&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="str">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
+        <v>&lt;p&gt;
+	选择礼物，点击送礼&lt;/p&gt;
+</v>
+      </c>
+      <c r="F14" t="str">
+        <v>&lt;p&gt;
+	&lt;span style="font-family: &amp;quot;Arial&amp;quot;; font-size: 13px; font-style: normal; font-weight: normal; text-decoration: none;"&gt;礼物赠送成功，钻石扣除对应数量 A接收到赠送礼物&lt;/span&gt;&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>送礼-赠送礼物时余额不足</v>
+      </c>
+      <c r="B16" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C16" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>&lt;p&gt;赠送礼物时候余额不足，点击赠送&lt;/p&gt;</v>
+      </c>
+      <c r="F16" t="str">
+        <v>&lt;p&gt;弹出余额不足引导充值弹窗，提示余额不足需要充值
+有取消与确定选项&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="str">
+        <v>2</v>
+      </c>
+      <c r="E17" t="str">
+        <v>&lt;p&gt;点击取消&lt;/p&gt;</v>
+      </c>
+      <c r="F17" t="str">
+        <v>&lt;p&gt;弹框消失，礼物赠送失败&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="str">
+        <v>3</v>
+      </c>
+      <c r="E18" t="str">
+        <v>&lt;p&gt;点击确定&lt;/p&gt;</v>
+      </c>
+      <c r="F18" t="str">
+        <v>&lt;p&gt;弹框消失，跳转到的充值界面&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>送礼-充值</v>
+      </c>
+      <c r="B20" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C20" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>&lt;p&gt;
+	点击礼物面板中的充值按钮&lt;/p&gt;
+</v>
+      </c>
+      <c r="F20" t="str">
+        <v>&lt;p&gt;
+	跳转到的充值界面 默认选中微信充值点击充值档位自动唤起支付&lt;span style="color:#ffffff;"&gt;第一位档位1000&lt;/span&gt;&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>送礼-礼物连击</v>
+      </c>
+      <c r="B22" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C22" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>&lt;p&gt;礼物赠送成功后&lt;/p&gt;</v>
+      </c>
+      <c r="F22" t="str">
+        <v>&lt;p&gt;右下角显示倒计时，时长共5S,倒计时按钮上数字从30倒计至0后&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="str">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <v>&lt;p&gt;继步骤&lt;br&gt;1，倒计时未结束时&lt;/p&gt;</v>
+      </c>
+      <c r="F23" t="str">
+        <v>&lt;p&gt;点击按钮可成功连击，礼物赠送数量会叠加&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="str">
+        <v>3</v>
+      </c>
+      <c r="E24" t="str">
+        <v>&lt;p&gt;继步骤&lt;br&gt;1，倒计时结束&lt;/p&gt;</v>
+      </c>
+      <c r="F24" t="str">
+        <v>&lt;p&gt;倒计时按钮消失&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>送礼-赠送大礼物</v>
+      </c>
+      <c r="B26" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C26" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <v>&lt;p&gt;A用户赠送B大礼物a，赠送成功&lt;/p&gt;</v>
+      </c>
+      <c r="F26" t="str">
+        <v>&lt;p&gt;大礼物特效显示在屏幕层级最顶级
+大礼物特效上显示流光&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="str">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <v>&lt;p&gt;
+	查看大礼物流光文案&lt;/p&gt;
+</v>
+      </c>
+      <c r="F27" t="str">
+        <v>&lt;p&gt;
+	显示：A用户昵称+&amp;quot;送&amp;quot;+B用户昵称+大礼物图标*数量 显示完成后消失&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>送礼-全服广播</v>
+      </c>
+      <c r="B29" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C29" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>&lt;p&gt;用户单次赠送礼物到达200金额&lt;/p&gt;</v>
+      </c>
+      <c r="F29" t="str">
+        <v>&lt;p&gt;触发全服广播，从左到右进场
+当前房间与其他房间都可以查看该广播&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="str">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <v>&lt;p&gt;其他房间点击全服广播&lt;/p&gt;</v>
+      </c>
+      <c r="F30" t="str">
+        <v>&lt;p&gt;可跳转至触发全服广播房间&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="str">
+        <v>3</v>
+      </c>
+      <c r="E31" t="str">
+        <v>&lt;p&gt;当前房间内查看全服广播&lt;/p&gt;</v>
+      </c>
+      <c r="F31" t="str">
+        <v>&lt;p&gt;无跳转&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="str">
+        <v>4</v>
+      </c>
+      <c r="E32" t="str">
+        <v>&lt;p&gt;继步骤&lt;br&gt;1，广播显示停留X秒后&lt;/p&gt;</v>
+      </c>
+      <c r="F32" t="str">
+        <v>&lt;p&gt;广播消失&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>语音房-用户首次进入语音房</v>
+      </c>
+      <c r="B34" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C34" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <v>&lt;p&gt;
+	用户首次创建进入语音房间&lt;/p&gt;
+</v>
+      </c>
+      <c r="F34" t="str">
+        <v>&lt;p&gt;
+	弹出授权录音权限 文案：&amp;quot;追读小说&amp;quot;需要你的录音权限 下方显示：取消和确定选项（ios下方显示不允许和好）&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="str">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>&lt;p&gt;
+	继步骤&lt;br /&gt;
+	1，点击取消&lt;/p&gt;
+</v>
+      </c>
+      <c r="F35" t="str">
+        <v>&lt;p&gt;
+	授权失败，toast提示&amp;ldquo;授权失败&amp;rdquo;，房间未创建成功，未进入（ios弹出提示&amp;ldquo;请到系统设置授权麦克风权限&amp;rdquo;）&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="str">
+        <v>3</v>
+      </c>
+      <c r="E36" t="str">
+        <v>&lt;p&gt;
+	继步骤&lt;br /&gt;
+	1，点击确定&lt;/p&gt;
+</v>
+      </c>
+      <c r="F36" t="str">
+        <v>&lt;p&gt;
+	授权成功，Toast提示&amp;ldquo;授权成功&amp;rdquo;，创建房间成功，可进入，房间旁喇叭显示开音状态（ios创建房间成功，进入房间页面）&lt;/p&gt;
+</v>
+      </c>
+    </row>
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>语音房-未登录用户</v>
+      </c>
+      <c r="B38" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C38" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <v>&lt;p&gt;未登录游客用户点击座位&lt;/p&gt;</v>
+      </c>
+      <c r="F38" t="str">
+        <v>&lt;p&gt;弹出登录提示&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="str">
+        <v>2</v>
+      </c>
+      <c r="E39" t="str">
+        <v>&lt;p&gt;未登录游客用户点击发言&lt;/p&gt;</v>
+      </c>
+      <c r="F39" t="str">
+        <v>&lt;p&gt;弹出登录提示&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="str">
+        <v>3</v>
+      </c>
+      <c r="E40" t="str">
+        <v>&lt;p&gt;未登录游客用户点击送礼&lt;/p&gt;</v>
+      </c>
+      <c r="F40" t="str">
+        <v>&lt;p&gt;弹出登录提示&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="str">
+        <v>4</v>
+      </c>
+      <c r="E41" t="str">
+        <v>&lt;p&gt;继步骤12&lt;br&gt;3，取消登录&lt;/p&gt;</v>
+      </c>
+      <c r="F41" t="str">
+        <v>&lt;p&gt;再次点击提示登录&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="str">
+        <v>5</v>
+      </c>
+      <c r="E42" t="str">
+        <v>&lt;p&gt;继步骤12&lt;br&gt;3，登录成功&lt;/p&gt;</v>
+      </c>
+      <c r="F42" t="str">
+        <v>&lt;p&gt;再次点击操作不提示登录&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>语音房-发言未绑定手机</v>
+      </c>
+      <c r="B44" t="str">
+        <v>&lt;p&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="C44" t="str">
+        <v>&lt;p&gt;已授权&lt;/p&gt;</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <v>&lt;p&gt;用户登录后未绑定手机号，进入别人房间，开启公屏聊天前&lt;/p&gt;</v>
+      </c>
+      <c r="F44" t="str">
+        <v>&lt;p&gt;提示需绑定手机
+文案：开启公屏聊天需要绑定手机，现在绑定
+底部显示：取消和马上绑定&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="str">
+        <v>2</v>
+      </c>
+      <c r="E45" t="str">
+        <v>&lt;p&gt;用户登录后未绑定手机号，进入别人房间点击上麦，点击开启发言(别人抱用户上麦)&lt;/p&gt;</v>
+      </c>
+      <c r="F45" t="str">
+        <v>&lt;p&gt;提示需绑定手机
+文案：开启上座发言需要绑定手机（开启公屏聊天需要绑定手机，现在绑定
+底部显示：取消和马上绑定）&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="str">
+        <v>2</v>
+      </c>
+      <c r="E46" t="str">
+        <v>&lt;p&gt;继步骤&lt;br&gt;1，2点击取消&lt;/p&gt;</v>
+      </c>
+      <c r="F46" t="str">
+        <v>&lt;p&gt;发送聊天失败&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="str">
+        <v>3</v>
+      </c>
+      <c r="E47" t="str">
+        <v>&lt;p&gt;继步骤&lt;br&gt;1，2点击马上绑定&lt;/p&gt;</v>
+      </c>
+      <c r="F47" t="str">
+        <v>&lt;p&gt;进入绑定流程，绑定后可正常发言&lt;/p&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>